--- a/data/gp0070_cronograma_20211.xlsx
+++ b/data/gp0070_cronograma_20211.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josef\Documents\R\lab-book\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D450D64E-52FF-4658-A85F-FB43442CB7CC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64EC93B9-8C96-4C9D-9961-314C28478BE1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="345" windowWidth="21600" windowHeight="11265" xr2:uid="{9E0FB77C-9704-45F6-B333-3779F5409E86}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9E0FB77C-9704-45F6-B333-3779F5409E86}"/>
   </bookViews>
   <sheets>
     <sheet name="20211" sheetId="2" r:id="rId1"/>
@@ -146,9 +146,6 @@
     <t>27-may</t>
   </si>
   <si>
-    <t>6-jun</t>
-  </si>
-  <si>
     <t>Teorías e hipótesis</t>
   </si>
   <si>
@@ -273,6 +270,9 @@
   </si>
   <si>
     <t>Entrega diseño</t>
+  </si>
+  <si>
+    <t>29-abr</t>
   </si>
 </sst>
 </file>
@@ -659,7 +659,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -707,12 +707,12 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -725,16 +725,16 @@
         <v>21</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -747,16 +747,16 @@
         <v>24</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
@@ -773,13 +773,13 @@
         <v>9</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H5" s="2">
         <v>15</v>
@@ -799,10 +799,10 @@
         <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -815,19 +815,19 @@
         <v>25</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="E7" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H7" s="2">
         <v>15</v>
@@ -844,13 +844,13 @@
         <v>18</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -863,16 +863,16 @@
         <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -885,19 +885,19 @@
         <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H10" s="2">
         <v>10</v>
@@ -909,7 +909,7 @@
         <v>29</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -928,16 +928,16 @@
         <v>11</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H12" s="2">
         <v>15</v>
@@ -951,16 +951,16 @@
         <v>31</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -973,16 +973,16 @@
         <v>32</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -992,22 +992,22 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H15" s="2">
         <v>15</v>
@@ -1017,20 +1017,20 @@
       <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>34</v>
+      <c r="B16" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -1040,17 +1040,17 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -1060,15 +1060,15 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -1076,7 +1076,7 @@
     <row r="19" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>12</v>
@@ -1115,6 +1115,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100AB13230AB38856408FEBA91BD66380CE" ma:contentTypeVersion="12" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="3627dcaefe3e03a6037aeba759110372">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c5ee773b-ba2a-4e06-b869-d7d8988d74a0" xmlns:ns4="7446b6b9-bebd-49c2-bc4a-7e0ad56b9f26" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d8bb04db08b25deda4cb6dfc48b0f2b1" ns3:_="" ns4:_="">
     <xsd:import namespace="c5ee773b-ba2a-4e06-b869-d7d8988d74a0"/>
@@ -1331,15 +1340,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1347,6 +1347,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F3C747E-4542-47E0-8D20-DECB858EFAEF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE331B51-4D3E-4B69-9FAC-E670D5E1FD75}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1365,14 +1373,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F3C747E-4542-47E0-8D20-DECB858EFAEF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6509456C-58F9-439D-9D27-CE11A8393292}">
   <ds:schemaRefs>
